--- a/eurofork/prj_01/Eurofork calc.xlsx
+++ b/eurofork/prj_01/Eurofork calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\Eurofork Calcoli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\eurofork\prj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63513D-94D5-463D-9CDA-B38A49ADC49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B386EE-F238-4728-80DB-2DF954EEDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1440" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,64 +330,70 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +679,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,20 +699,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -737,10 +750,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="26">
         <v>60000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="26">
         <v>1200</v>
       </c>
       <c r="D3" s="3">
@@ -775,16 +788,16 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="26">
         <v>30000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="26">
         <v>1000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="26">
         <v>1200</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="26">
         <v>1000</v>
       </c>
       <c r="F4" s="3">
@@ -825,30 +838,30 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
+      <c r="B7" s="22"/>
+      <c r="C7" s="27">
         <v>50</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="27"/>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
@@ -870,10 +883,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="8">
+      <c r="C8" s="27">
         <v>50</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
@@ -891,14 +904,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16">
+      <c r="B9" s="23"/>
+      <c r="C9" s="28">
         <v>50</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="28"/>
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,91 +929,91 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16">
         <f>C12-C3</f>
         <v>200</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="H10" s="23" t="s">
+      <c r="D10" s="16"/>
+      <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8">
+      <c r="B11" s="21"/>
+      <c r="C11" s="27">
         <v>1000</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="27"/>
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="18">
         <f>J5*2</f>
         <v>26</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8">
+      <c r="B12" s="21"/>
+      <c r="C12" s="27">
         <v>1400</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="27"/>
       <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="18">
         <f>I11*J9</f>
         <v>1248</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
+      <c r="B13" s="22"/>
+      <c r="C13" s="17">
         <f>(C3-E4)+C10</f>
         <v>400</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8">
+      <c r="B14" s="25"/>
+      <c r="C14" s="17">
         <f>(C3-E4)/2</f>
         <v>100</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="A11:B11"/>
@@ -1009,13 +1022,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
